--- a/static/uploads/data_Test.xlsx
+++ b/static/uploads/data_Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\YoProgramo\python\Api_FastAPI\exel_to_database\static\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832A2CB8-2AB3-4347-96D4-538A9105A701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87262171-87AA-4D7B-BC7B-CD5902BC4F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4875" yWindow="1515" windowWidth="21600" windowHeight="11835" xr2:uid="{FCE606B2-40F1-469F-A927-FD75F1CDBDAF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>ID</t>
   </si>
@@ -42,21 +42,12 @@
     <t>Nico</t>
   </si>
   <si>
-    <t>Pozzer</t>
-  </si>
-  <si>
-    <t>nico@gmail.com</t>
-  </si>
-  <si>
     <t>Martin</t>
   </si>
   <si>
     <t>Ramirez</t>
   </si>
   <si>
-    <t>sdfsf@hotmail.com</t>
-  </si>
-  <si>
     <t>tsdt@outlook.com.ar</t>
   </si>
   <si>
@@ -72,35 +63,62 @@
     <t>Ocampo</t>
   </si>
   <si>
-    <t>nico</t>
-  </si>
-  <si>
     <t>Phone</t>
   </si>
   <si>
-    <t>sdfs</t>
-  </si>
-  <si>
-    <t>sdfsd</t>
-  </si>
-  <si>
-    <t>fsdf</t>
-  </si>
-  <si>
     <t>sdfsf</t>
   </si>
   <si>
-    <t>sdfsdfs</t>
-  </si>
-  <si>
     <t>daniel-juarez@outlook.com.ar</t>
+  </si>
+  <si>
+    <t>ramiro28@hotmail.com</t>
+  </si>
+  <si>
+    <t>tincho22@outlook.com.ar</t>
+  </si>
+  <si>
+    <t>Alberto</t>
+  </si>
+  <si>
+    <t>albertfsf@hotmail.com</t>
+  </si>
+  <si>
+    <t>Adrian-et@hotmail.com</t>
+  </si>
+  <si>
+    <t>Matias</t>
+  </si>
+  <si>
+    <t>Gonzalez</t>
+  </si>
+  <si>
+    <t>matig@gmail.com</t>
+  </si>
+  <si>
+    <t>Mariano</t>
+  </si>
+  <si>
+    <t>marian@outlook.com.ar</t>
+  </si>
+  <si>
+    <t>Nicole</t>
+  </si>
+  <si>
+    <t>Herrera</t>
+  </si>
+  <si>
+    <t>nicole08@gmail.com</t>
+  </si>
+  <si>
+    <t>rami22@hotmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +136,13 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -161,12 +186,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -482,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C7BD24-0FE9-4293-9527-41ECC501086D}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,7 +521,7 @@
     <col min="5" max="5" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,201 +535,346 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3">
+        <v>4234236123</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2344236123</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4424236123</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2554236123</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="3">
+        <v>4234236199</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="E7" s="3">
+        <v>3434236123</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1134236123</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2234236188</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>3</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1334236123</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1834236123</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>21412</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E6">
-        <v>3453534</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>453453</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8">
-        <v>43534</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>34534</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10">
-        <v>3534</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>34534</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12">
-        <v>634</v>
-      </c>
+      <c r="D12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1534236144</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{A1CA829E-94A4-42EC-9C80-B45A6E8AD676}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{ED277F60-AE28-429A-93E4-CFFB9D2FEEB5}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{FDC830E7-2898-4EC5-B144-2A28611F3C91}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{609029A4-31D1-41F1-ACB9-01A93EE4A633}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{2E74A36D-BA21-4EC5-8D2F-33B6D902AA42}"/>
+    <hyperlink ref="D8" r:id="rId6" xr:uid="{C256CE93-8028-414C-9D55-85587ADFFD50}"/>
+    <hyperlink ref="D9" r:id="rId7" xr:uid="{8CD82977-6BAE-47F6-8C2C-5AC467D5D22C}"/>
+    <hyperlink ref="D10" r:id="rId8" xr:uid="{0BA58937-16CB-4500-A422-7420E6024B8C}"/>
+    <hyperlink ref="D11" r:id="rId9" xr:uid="{7953B782-26EA-4E36-8F4D-A7B41997A87B}"/>
+    <hyperlink ref="D12" r:id="rId10" xr:uid="{CA8628B9-659D-4EA9-A854-4A2131BABE81}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/static/uploads/data_Test.xlsx
+++ b/static/uploads/data_Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\YoProgramo\python\Api_FastAPI\exel_to_database\static\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87262171-87AA-4D7B-BC7B-CD5902BC4F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782EC343-0B25-432F-8724-6A40AFCE73F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4875" yWindow="1515" windowWidth="21600" windowHeight="11835" xr2:uid="{FCE606B2-40F1-469F-A927-FD75F1CDBDAF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Phone</t>
   </si>
   <si>
-    <t>sdfsf</t>
-  </si>
-  <si>
     <t>daniel-juarez@outlook.com.ar</t>
   </si>
   <si>
@@ -90,15 +87,9 @@
     <t>Matias</t>
   </si>
   <si>
-    <t>Gonzalez</t>
-  </si>
-  <si>
     <t>matig@gmail.com</t>
   </si>
   <si>
-    <t>Mariano</t>
-  </si>
-  <si>
     <t>marian@outlook.com.ar</t>
   </si>
   <si>
@@ -112,6 +103,12 @@
   </si>
   <si>
     <t>rami22@hotmail.com</t>
+  </si>
+  <si>
+    <t>Pinat</t>
+  </si>
+  <si>
+    <t>Juan</t>
   </si>
 </sst>
 </file>
@@ -186,13 +183,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -509,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C7BD24-0FE9-4293-9527-41ECC501086D}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,7 +517,7 @@
     <col min="5" max="5" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,329 +533,193 @@
       <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>4234236123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>2344236123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="3">
-        <v>4234236123</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="E4">
+        <v>4424236123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>2554236123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>4234236199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>3434236123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="E3" s="3">
-        <v>2344236123</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="3">
-        <v>4424236123</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="D8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <v>1134236123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>3434534534</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2342423434</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1834236123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="3">
-        <v>2554236123</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="3">
-        <v>4234236199</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="3">
-        <v>3434236123</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1134236123</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2234236188</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>3</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1334236123</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1834236123</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="E12">
         <v>1534236144</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/static/uploads/data_Test.xlsx
+++ b/static/uploads/data_Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\YoProgramo\python\Api_FastAPI\exel_to_database\static\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782EC343-0B25-432F-8724-6A40AFCE73F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427655B1-5A42-4A3F-AB93-0E4E49D78F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4875" yWindow="1515" windowWidth="21600" windowHeight="11835" xr2:uid="{FCE606B2-40F1-469F-A927-FD75F1CDBDAF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>ID</t>
   </si>
@@ -109,13 +109,49 @@
   </si>
   <si>
     <t>Juan</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Corrientes 777</t>
+  </si>
+  <si>
+    <t>Corrientes 778</t>
+  </si>
+  <si>
+    <t>Corrientes 779</t>
+  </si>
+  <si>
+    <t>Corrientes 780</t>
+  </si>
+  <si>
+    <t>Corrientes 781</t>
+  </si>
+  <si>
+    <t>Corrientes 782</t>
+  </si>
+  <si>
+    <t>Corrientes 783</t>
+  </si>
+  <si>
+    <t>Corrientes 784</t>
+  </si>
+  <si>
+    <t>Corrientes 785</t>
+  </si>
+  <si>
+    <t>Corrientes 786</t>
+  </si>
+  <si>
+    <t>Corrientes 787</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +178,12 @@
     <font>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -505,19 +547,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C7BD24-0FE9-4293-9527-41ECC501086D}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="26.7109375" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -533,8 +576,11 @@
       <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -550,8 +596,11 @@
       <c r="E2">
         <v>4234236123</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -567,8 +616,11 @@
       <c r="E3">
         <v>2344236123</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -584,8 +636,11 @@
       <c r="E4">
         <v>4424236123</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -601,8 +656,11 @@
       <c r="E5">
         <v>2554236123</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -618,8 +676,11 @@
       <c r="E6">
         <v>4234236199</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -635,8 +696,11 @@
       <c r="E7">
         <v>3434236123</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -652,8 +716,11 @@
       <c r="E8">
         <v>1134236123</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -669,8 +736,11 @@
       <c r="E9">
         <v>3434534534</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -686,8 +756,11 @@
       <c r="E10">
         <v>2342423434</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -703,8 +776,11 @@
       <c r="E11">
         <v>1834236123</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -720,8 +796,12 @@
       <c r="E12">
         <v>1534236144</v>
       </c>
+      <c r="F12" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{A1CA829E-94A4-42EC-9C80-B45A6E8AD676}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{ED277F60-AE28-429A-93E4-CFFB9D2FEEB5}"/>
